--- a/ezo/shidan.xlsx
+++ b/ezo/shidan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>番號</t>
   </si>
@@ -164,6 +164,36 @@
   </si>
   <si>
     <t>習</t>
+  </si>
+  <si>
+    <t>歌</t>
+  </si>
+  <si>
+    <t>謳</t>
+  </si>
+  <si>
+    <t>伴</t>
+  </si>
+  <si>
+    <t>狂</t>
+  </si>
+  <si>
+    <t>遭</t>
+  </si>
+  <si>
+    <t>叶</t>
+  </si>
+  <si>
+    <t>行な</t>
+  </si>
+  <si>
+    <t>戰</t>
+  </si>
+  <si>
+    <t>奪</t>
+  </si>
+  <si>
+    <t>呪</t>
   </si>
 </sst>
 </file>
@@ -192,6 +222,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -206,22 +243,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,19 +282,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,29 +314,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,9 +335,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,187 +380,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,6 +599,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -592,17 +637,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +663,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -636,26 +686,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -664,7 +694,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,31 +703,31 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,107 +736,107 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,6 +844,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1138,14 +1171,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="17.25" outlineLevelCol="5"/>
@@ -1741,8 +1774,12 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C42" s="3" t="s">
         <v>48</v>
       </c>
@@ -1751,8 +1788,12 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C43" s="3" t="s">
         <v>49</v>
       </c>
@@ -1761,73 +1802,127 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1835,18 +1930,148 @@
     <row r="53" spans="1:6">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ezo/shidan.xlsx
+++ b/ezo/shidan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>番號</t>
   </si>
@@ -76,9 +76,6 @@
     <t>言</t>
   </si>
   <si>
-    <t>い</t>
-  </si>
-  <si>
     <t>味わ</t>
   </si>
   <si>
@@ -194,6 +191,15 @@
   </si>
   <si>
     <t>呪</t>
+  </si>
+  <si>
+    <t>從</t>
+  </si>
+  <si>
+    <t>臭</t>
+  </si>
+  <si>
+    <t>爭</t>
   </si>
 </sst>
 </file>
@@ -202,9 +208,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -222,14 +228,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,16 +257,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,7 +305,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +341,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -336,14 +357,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,15 +365,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,31 +386,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,151 +542,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,26 +595,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,15 +636,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -648,26 +645,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,6 +668,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -694,149 +700,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,9 +850,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1171,14 +1174,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="17.25" outlineLevelCol="5"/>
@@ -1403,7 +1406,9 @@
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
@@ -1415,11 +1420,9 @@
         <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
@@ -1938,140 +1941,136 @@
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ezo/shidan.xlsx
+++ b/ezo/shidan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>番號</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>爭</t>
+  </si>
+  <si>
+    <t>まよ</t>
+  </si>
+  <si>
+    <t>彷徨</t>
+  </si>
+  <si>
+    <t>嫌</t>
   </si>
 </sst>
 </file>
@@ -208,9 +217,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -227,13 +236,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -241,7 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -250,54 +252,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,37 +276,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,7 +313,68 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,6 +395,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -398,25 +503,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,19 +539,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,121 +569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,17 +604,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,8 +618,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,22 +639,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,23 +672,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,145 +709,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,7 +1190,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="17.25" outlineLevelCol="5"/>
@@ -1963,7 +1972,9 @@
     <row r="56" spans="1:6">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1971,7 +1982,9 @@
     <row r="57" spans="1:6">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1979,7 +1992,9 @@
     <row r="58" spans="1:6">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
